--- a/CashFlow/NVAX_cashflow.xlsx
+++ b/CashFlow/NVAX_cashflow.xlsx
@@ -780,19 +780,19 @@
         </is>
       </c>
       <c r="B6" s="0" t="n">
-        <v>81000000.0</v>
+        <v>163161000.0</v>
       </c>
       <c r="C6" s="0" t="n">
-        <v>30000000.0</v>
+        <v>65937000.0</v>
       </c>
       <c r="D6" s="0" t="n">
-        <v>9070000.0</v>
+        <v>26561000.0</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>971000.0</v>
+        <v>-8082000.0</v>
       </c>
       <c r="F6" s="0" t="n">
-        <v>-13882000.0</v>
+        <v>-11485000.0</v>
       </c>
       <c r="G6" s="0" t="n">
         <v>-13128000.0</v>
